--- a/results/correct models/R4-computer-game1/associations_inclusion_check.xlsx
+++ b/results/correct models/R4-computer-game1/associations_inclusion_check.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,3579 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have hypothesis </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2. If other players are informed that a hypothesis was refuted, it suggests that a player can indeed have a hypothesis.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 only discusses the situation after a hypothesis has already been made and refuted, it does not provide information on whether a player can or cannot have a hypothesis.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The information about a player being capable of having a hypothesis cannot be extracted from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The validity of a player having a hypothesis is not determined by the information provided in Statement 2. Statement 2 discusses an event that takes place after the formation of a hypothesis, specifically its refutation and the subsequent revelation of evidence. It does not establish the potential for the original existence of a hypothesis in the first place (as Statement 1 does). Therefore, one statement does not logically result from the other.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2. The fact that a hypothesis was refuted and evidence is required implies that a player can indeed have a hypothesis.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 does support Statement 1 as it assumes that a player can have a hypothesis that can either be validated or refuted.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A question is asked by a player</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The second statement implies that questions are involved but does not specifically state that a player asks a question.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2 as the questions must be asked by someone, and in this case, it is implied that it is a player in the game.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. While Statement 2 implies that players are asking questions, it does not specifically state that a question is asked by a player.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow Statement 2, as it could be inferred that a player is asking the questions that form the hypothesis for the murder circumstance and perpetrator.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1 because it explains the purpose and context of a player asking a question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A player visits a planet by making legal moves on the board until a cell adjacent to an atmosphere entry point is reached.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss different aspects and do not provide information about each other.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because they are about different topics. Statement 1 is about a physical feature of a planet (having a wormhole) while Statement 2 is about a game wherein a player visits a planet through legal moves. The two statements share the term "planet" but they don't share a logical or topical connection.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are discussing completely different topics; one is about planets having wormholes and the other is about a player's moves in a game.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>The objective of player movement throughout the universe is to investigate specific planets to determine if that was the murder site.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No, Statement1 cannot be determined from Statement 2. The information provided in Statement2 doesn't assert or imply that a hypothesis has a planet.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 does not provide any information on whether a hypothesis has a planet.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A player visits a planet by making legal moves on the board until a cell adjacent to an atmosphere entry point is reached.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A entry point is adjacent to cells </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2. Statement 2 indicates that a player can reach an atmosphere entry point by moving to a cell that is adjacent to it, which implies that an entry point is adjacent to cells.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 gives information about a player's actions and does not provide a definition or explanation for what an entry point is in relation to a cell.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be derived from Statement 2. Statement 2 implies that an atmosphere entry point is adjacent to a cell, as part of a player's necessary movement requires reaching a cell adjacent to that entry point. Therefore, an "entry point is adjacent to cells" is a logical interpretation of Statement 2.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. Statement 2 implies that an entry point may be adjacent to cells but it doesn't explicitly confirm it. Therefore, Statement 1 cannot be directly deduced from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2 as it essentially describes the same concept: that an entry point is next to, or adjacent to, cells.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 does support Statement 1. It directly suggests that an entry point is adjacent to cells as a player needs to reach a cell adjacent to an atmosphere entry point through legal moves on the board.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Also, a player may not move into a cell occupied by another player's token.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A entry point is adjacent to cells </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. They provide information about different concepts: adjacent cells and the rules of a game respectively.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. They are discussing different aspects of what seems to be a game; the first about positioning of entry point and cells, the second about rules of player movement.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 as they discuss different topics. The first statement talks about the position of an entry point, while the second refers to the rules of player movement within the game.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are discussing different aspects of a game and Statement 2 does not provide information about the positioning of an entry point in relation to cells.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The player may change directions multiple times but cannot enter the same cell twice during a single turn.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A entry point is adjacent to cells </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss different aspects and are not logically connected.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The information in Statement 1 is not mentioned or implied by Statement 2.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>It costs the player a single move to enter the atmosphere from the adjacent cell.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>A legal move is from a cell</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The statements talk about different aspects and one doesn't logically lead to the other.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Yes, statement 2 supports statement 1 as it provides an example of a legal move from a cell (atmosphere being interpreted as a type of cell or grid position).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>It costs the player a single move to enter the atmosphere from the adjacent cell.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A legal move has a a to which is a cell</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>The murder hypothesis is communicated to all players.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The two statements discuss different topics and do not relate to each other.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements are discussing different aspects of a game and do not logically relate in a way that one implies the other.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are not related.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different aspects of a game and don't provide enough information for one to be derived from the other.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The two statements are discussing different elements: one is about a gameplay action, and the other is about communication of a hypothetical situation. They are not logically related or sequential.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss different aspects and are not directly related.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1. They are discussing different aspects of a game and are not directly related.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>The wormholes connect certain planets.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The two statements are about different subjects and have no logical connection.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss different topics with no logical connection or relationship stated.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are about different topics and do not provide information about each other.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. There is no logical or contextual connection between the two statements.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are about completely different topics and there's no logical connection between them.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are about completely different subjects and do not provide any relevant information about each other.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1. The two statements discuss different subjects, one being a player's potential moves in a game and the other being an aspect of fictional or theoretical space physics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>In contrast, the server coordinates communication between players and orchestrates the sequence of events of the game.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss different aspects of a game; Statement 2 focuses on the role of the server in a game, while Statement 1 discusses the possibilities for a player within the game. There is no direct link or implication between the two statements.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. Statement 2 does not provide any information related to the legal moves a player can have in a game.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are discussing different aspects of a game, and Statement 2 makes no reference to the availability of legal moves for a player.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>No, statement 2 does not support statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>These entry points are graphically depicted on the game as a diagonal line off a square on the board leading into a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The first talks about a player's ability to make legal moves, while the second talks about a specific way that entry points are depicted in a game. There's no information about legal moves in the second statement.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss different aspects of a game and Statement 2 does not provide any information about a player's ability to have legal moves.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss different aspects and details of a game and do not provide information about each other. Statement 2 does not confirm or deny a player's ability to have legal moves, as Statement 1 mentions.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The information in these two statements is unrelated.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss different aspects of a game, with no logical connection established between them.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 describes a specific graphical representation of a game board but does not provide any information about a player's potential legal moves.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A legal move consists of a player moving their token, the number of moves determined by the spinner, either horizontally or vertically, but not diagonally.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2, as Statement 2 explains what a legal move for a player consists of.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 defines what a legal move is but doesn't explicitly state that a player can have legal moves.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 describes what a legal move is but does not provide information on whether or not a player can have legal moves.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be derived from Statement 2. It suggests that a player can make legal moves as defined by the conditions in Statement 2.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2. Statement 2 explains what a legal move is, and thus implies that a player can have legal moves (Statement 1).</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2. Statement 2 defines what a legal move is in the context of a game, implying that a player can make such moves.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Yes, statement 2 does support statement 1 as it explains what a legal move of a player is.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss different aspects of a game and Statement 2 does not provide information about the legal moves a player can make.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The two statements are discussing different subjects and the second statement provides no logical basis that would lead to the conclusion of the first statement.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Players may also travel through a few strategically placed wormholes.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2. The mention of "players may also travel" indicates that players have the ability to make specific actions or moves, which implies that a player can have legal moves.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2. The ability for players to travel through wormholes suggests that there are legal moves that a player can make within the game.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The second statement talks about a specific way of moving (through wormholes), but it doesn't provide general information to infer that a player can always have legal moves.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2. If players can travel through wormholes, it implies that there are rules or mechanisms guiding player movements, indicating the possibility of "legal moves".</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The concept of "legal moves" is not addressed or inferred in Statement 2.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Yes, statement 2 supports statement 1 as traveling through wormholes can be seen as a legal move a player can make.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Also, a player may not move into a cell occupied by another player's token.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. Statement 1 speaks about the possibility of a player having legal moves, while Statement 2 speaks about a restriction on certain moves. Statement 2 doesn't provide information about all the possible legal moves a player may have.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 only describes a restriction on player movement, not its possibility or legality.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 describes a specific rule or restriction regarding player movement, but it doesn't provide information on whether a player can have legal moves.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. Statement 1 is talking about the possibility of a player making legal moves, whereas Statement 2 is conveying a restriction on certain types of moves. They are related in terms of discussing rules of a game, but one does not directly infer the other.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes, statement 1 can logically follow from statement 2. Statement 2 defines a specific rule or restriction of the game, but it implies that there are legal moves a player can make, as per Statement 1.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 only gives a rule that restricts certain moves, but it doesn't confirm that legal moves are possible.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 does support Statement 1, as it identifies a specific rule or restriction that helps define what would be considered a "legal" move for a player.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>As the players travel through the universe, they are permitted to ask questions about what information their fellow players possess.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The first statement mentions "legal moves," which suggests some form of game-based physical or strategic action. The second statement, however, discusses the ability to ask questions but does not reference physical or strategic moves of any kind.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements are discussing different aspects of gameplay; the first one talks about possible actions/movements within the game, whereas the second statement discusses the accessibility of information between players. The second statement does not provide any information about whether or not legal moves are allowed.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are discussing different aspects of a game - possible actions within gameplay versus interaction between players. Neither statement provides enough information to infer the other.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The "legal moves" in Statement 1 seem to refer to possible actions a player can take in a game, while Statement 2 discusses about players asking questions about information. The two statements discuss different aspects of a game and are not directly related.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The statements deal with different aspects of game play and do not logically connect.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 talks about the ability to ask questions, but it does not address the concept of "legal moves" as mentioned in Statement 1.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>The game is an intergalactic murder mystery, which emulates a board game scenario in which players spin a wheel to determine a randomly selected number of moves by which they travel through space to various planets.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2. The second statement suggests that players can make moves, implying they could be legal.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2. Statement 2 mentions that the game allows players to move around, which implies that a player can have legal moves.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. While Statement 2 describes a game that clearly involves moves, it does not specify whether these moves must be legal or if there are any rules governing them.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be derived from Statement 2. Statement 2 implies that players move through a game, which implies that a player can have legal moves.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2. This is because in Statement 2, we understand that players can move by spinning a wheel to determine the number of moves, which suggests that a player can have "legal moves".</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2 because the game scenario described in Statement 2 implies that players make moves.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1. The context provided in Statement 2 (about spinning a wheel to determine the number of moves a player makes in a board game) implies that these are legal moves a player might make, thus supporting the claim in Statement 1 that a player can have legal moves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss distinct ideas. Statement 1 discusses the concept of a player having legal moves, possibly in a game. Statement 2 discusses the concept of refuting a hypothesis and presenting evidence. There is no clear link between the two ideas.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements seem to discuss different subjects and do not directly relate to each other.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different topics and do not provide information that could link one to the other.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The two statements address different topics - one refers to a player's ability to make legal moves, and the other pertains to the refutation of a hypothesis and informing other players about this. They are not logically connected.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss different topics and are not logically connected.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1. They seem to be discussing two different topics - one about moves in a game and the other about refuting a hypothesis with evidence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>The first player to accomplish this wins the game.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. These two statements discuss different aspects of a game and do not directly relate to each other.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are not logically connected.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A player whose token resides on one of four planets having wormhole connections to other planets may choose not to spin the spinner and take the wormhole directly to the other planet.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2 because Statement 2 implies that a player has the choice (legal move) to either spin the spinner or use the wormhole.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2. Statement 2 suggests that the player has the ability to make a legal move - either spin the spinner or take the wormhole.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Despite Statement 2 gives very specific example of the player's move, it does not provide generalized information about the legality of all possible moves.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. Statement 2 provides a specific example of a legal move in a particular game situation, but it doesn't confirm the general ability for a player to have legal moves in all situations.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2. Statement 2 implies that the player has legal moves in the game, which could include taking the wormhole directly to the other planet.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2. The options to either spin the spinner or take the wormhole directly represent legal moves a player can make.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1 as it provides an example of a legal move a player can make in a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>If a player draws an incorrect conclusion, they lose the game.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements are discussing different aspects of gameplay and one does not necessarily cause or affect the other.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different aspects of a game, with one focusing on the ability to make legal moves and the other discussing potential consequences of incorrect conclusions.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are discussing different aspects of a game and do not logically connect to each other.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss different aspects of game play and one does not provide evidence or context for the other.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>The solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. Statement 2 does not provide information about a player's ability to make legal moves.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss completely different aspects of a game play scenario.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. These statements do not appear to be directly related.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different aspects of a game and do not appear to be directly related.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The first statement speaks about a player's ability to make legal moves in a game while the second statement is about broadcasting a solution to all players. There's no logical connection between the two statements.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement does not provide information about a player's ability to make legal moves.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>The game's objective is to gather clues while traveling about the universe.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The second statement only discusses the objective of the game and not the feasibility of legal moves for a player.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The second statement tells us about the objective of the game, but it doesn't mention anything about the player's ability to make legal moves.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The second statement speaks about the game's objective, while the first one talks about the ability of a player. They are about different aspects of a game.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2 as any game necessarily involves players making legal moves to progress, even if the game's objective is to gather clues while traveling about the universe.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement does not provide information about legal moves a player can have.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>This element is primarily dictated by luck since the wheel's spin determines the speed at which a player reaches a destination.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. Statement 2 talks about an element being dictated by luck and the spin of a wheel determining player's speed to reach a destination, but it does not mention anything about a player being able to make legal moves.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The first statement specifically mentions "legal moves" a player might have, while the second statement discusses the element of luck in a game and how it affects a player's speed in reaching a destination. There is no clear link between the two statements.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>The player is considered to be on the planet as soon as the planet's atmosphere has been entered.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The two statements are about completely different topics.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss completely unrelated subjects.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are about different topics and do not provide information about each other.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different subjects and are not logically connected.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The two statements are about different subjects and do not connect logically.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are not logically connected.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A player may not re-visit the same planet on a single turn.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The statements refer to different aspects of a game and don't directly relate to each other.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are discussing different aspects of a game's rules. Statement 2 provides a specific rule about not re-visiting the same planet, but it doesn't provide information about whether or not a player can have legal moves in general.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2. The rules outlined in Statement 2 implicate the existence of legal moves a player can execute.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 limits a potential move in a game, but it does not necessarily mean that a player has legal or valid moves.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1 as it suggests rules that govern the player's moves hence implying the existence of "legal moves".</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>The player may change directions multiple times but cannot enter the same cell twice during a single turn.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Yes, statement 1 can be inferred from statement 2. The ability for the player to change directions implies that there are legal moves the player can make.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2 because the ability to change directions multiple times indicates the possibility of legal moves.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be determined from Statement 2. Statement 2 implies the existence of legal moves a player can make during their turn.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be derived from Statement 2. The fact that the player can change directions multiple times during a turn suggests that the player has the ability to make legal moves.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2. The second statement discusses specific conditions for legal moves in a game, implying that legal moves are in general possible.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 implies that a player can make legal moves, which are defined by the rules mentioned.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1 as it gives an example of the types of legal moves a player can make in a certain game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Each player receives information concerning the murder, and no players receive the same information.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The first statement is about the possibility of a player making legal moves while the second statement is about players receiving unique information about a murder. These two statements are about different topics.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The statements discuss two different aspects of a game - one is about possible actions a player can take, and the other is about the distribution of information among players. There is no logical link between them that would suggest implications.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 is referring to a specific situation or set of rules in a game, but it does not directly state or imply anything about the legality of a player's moves.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements are discussing different aspects of a game and there is no direct link between the information a player receives and the legality of their moves.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The information regarding the murder and the uniqueness of information received by players has nothing to do with whether a player can have legal moves or not. These are two separate concepts.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 discusses information received by players and does not mention anything about legal moves a player can have.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1. The two statements discuss different aspects of a game and one does not provide evidence or justification for the other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The rules of the game described in Statement 2 do not imply anything about the legality of a player's moves.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. Statement 2 does not provide any information about a player having legal moves.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. Statement 1 talks about the ability of a player to have legal moves, while Statement 2 details how a player can win the game with a correct murder hypothesis. The two statements could relate to the same game but don’t logically connect in the given context.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 does not provide any information about the player having legal moves.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>The planets, Linuta and Verlute, have a wormhole connecting each other, as do Earth and Evilon.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The two statements are about completely different topics, one is about a player's possible moves (in an unspecified context) and the other is about cosmic connections between planets.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss completely different and unrelated subjects.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. These statements are about completely different topics. Statement 1 is about a game scenario while Statement 2 mentions about astronomical subjects. They are not related.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. They discuss entirely unrelated concepts.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss completely different topics.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements do not have any logical or contextual connection.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1. The two statements discuss completely different topics - one is about possible moves in a game, and the other is about wormholes connecting planets. There is no apparent link between the two statements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>To visit a planet, a player must enter the planet's atmosphere at one of the predefined entry points.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. These statements are about different matters and don't provide information related to each other.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The first statement is a general statement about a player's potential actions in a game, while the second statement discusses a specific action a player must take when visiting a planet in the game. There is not sufficient correlation or information to derive Statement 1 from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements address different aspects of gameplay and do not provide logical progression from one to another.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss different aspects of a game and do not have a direct correlation.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Each planet has between one and three predefined atmospheric entry points.</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The two statements are about different topics; one is about a player's moves in a game and the other is about the characteristics of planets. There is no connection between these statements.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. They discuss about completely different subjects.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are about completely different topics and there is no clear connection or relation between them.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements are about completely different topics; one is about a player in potentially a game or sport, and the other is about planets and atmospheric entry points. There is no logical connection between the two.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because the two statements are about completely different topics. Statement 1 is about game-playing or sports and Statement 2 is about astronomy or science fiction. There is no logical connection between the two statements.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are about different topics and do not relate to each other in any discernible way.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1. They are discussing completely different subjects - one is about a player in a game (presumably) and the other is about planets and atmospheric entry points. There's no clear link or support between these two statements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>This application will, therefore, take on a client/server structure where each client supports one player's view of the game.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 discusses the structure of an application but does not provide information on whether a player can have legal moves.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The first statement is about the ability of a player to make legal moves in a game, and the second statement is about the technical structure of a game application. The two statements are not directly related.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are discussing different aspects of a game - one is about the technical structure of an application, while the other is about possible actions of a player within the game. They are not logically connected.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement talks about the structure of an application, but it does not provide information about a player's ability to make legal moves.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>The game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The second statement talks about the strategy of a specific game but does not make any direct reference to legal or illegal moves a player can make.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. Statement 2 does not provide any specific information about whether a player can have legal moves.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The first statement is about a player's ability to make legal moves but the second statement is about the strategy of the game which could potentially involve making legal moves, but doesn't necessarily confirm that.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement talks about strategies and methods used in a game, but it doesn't necessarily indicate that a player can have legal moves.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>The goal of the class project is to implement an Internet-based, who-done-it-style game called Galaxy Sleuth.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 does not provide information about the mechanics of the game, such as whether a player can have legal moves.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. While Statement 2 describes a specific game, it does not provide information on the rules or mechanics of the game, or specify whether a player can have legal moves.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. While it might be reasonable to infer that a player could have legal moves in an internet-based game, the second statement does not explicitly provide that information.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement does not provide information on whether a player can have legal moves.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1. The two statements discuss different topics. The first is a general statement about players and legal moves, while the second is a specific statement about a class project to create a game called Galaxy Sleuth. The second statement does not provide any information or evidence to support the first.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>When the correct hypothesis is announced, all players are informed of the circumstances of the murder.</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. Statement 2 discusses the sharing of information about a hypothesis, but it doesn't provide any information about a player's ability to make legal moves.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss different aspects of what seems to be a game, and Statement 2 does not provide any information about whether a player can have legal moves.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss different aspects of a game and Statement 2 does not provide information on the possible actions or movements of a player.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. They are about completely different topics.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss different subjects within gameplay - legal moves and information about a murder hypothesis - without any clear logical connection.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are discussing different aspects of gameplay and do not provide information about each other.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>After gathering a certain set of clues and applying deductive reasoning, players may deduce the perpetrator and circumstance of the murder.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 discusses a specific gameplay involving deductive reasoning and clue gathering, but it doesn't reveal anything about a player's ability to make legal moves.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The statements are discussing two different aspects of a game - one about player's moves and the other about deducing a crime - and do not logically connect to each other.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 does not provide information about legal moves a player can make.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>A player visits a planet by making legal moves on the board until a cell adjacent to an atmosphere entry point is reached.</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be determined from Statement 2. The second statement implies that a player can make legal moves.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be derived from Statement 2 as it states that a player makes "legal moves" which implies a player can have legal moves.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2. The fact that a player can make legal moves until a certain point is reached implies that a player can have legal moves.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>The player can enter the planet's atmosphere in a different number of moves.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from statement 2. If a player can enter the planet's atmosphere in a different number of moves, it means the player is making legal moves.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The ability to make legal moves in a game is not directly related or inferred from the ability to enter a planet's atmosphere in a different number of moves. These two statements could possibly be related if they are from the same game and context, but based on the given information, one does not provide enough information to determine the other.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1. The ability to enter the planet's atmosphere in a different number of moves implies that there are multiple legal moves a player can make.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>The game is Internet-based in that players can play each other from remote sites on the Internet.</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The second statement talks about the platform of the game and the ability to play remotely but does not provide information about the legality of the moves a player can make.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. While Statement 2 indicates the game is played over the Internet, it makes no mention of whether a player can have legal moves.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 informs about the platform of the game, but it does not provide information about the game rules or the capability of a player to have legal moves.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. Statement 1 refers to the possibility of a player making legal moves, it doesn't necessarily depend on whether the game is Internet-based or not, as mentioned in Statement 2.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Yes, statement 1 can logically follow from statement 2. The nature of the game being internet-based implies that it would likely have structured rules and therefore possible legal moves.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement discusses the location and platform of the game, not the rules or possibilities within the game mechanics.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, Statement 2 does not support Statement 1. Statement 2 talks about the platform of playing, which is internet-based and can be played from remote locations, where as Statement 1 talks about the ability of a player making legal moves in a game. They are bescribing different aspects of a game.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>If the hypothesis cannot be denied, all players are informed of that fact.</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The two statements are discussing different topics.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements are dealing with different subjects and there is no logical connection between them.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements do not have relevant information to each other.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different aspects and do not correlate or provide information about one another.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The statements are about two different subjects within a game; one is about the availability of legal moves and the other is about the communication of a hypothesis.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are discussing different aspects of a game - one is about possible moves and the other is about information provided to the players. There is no logical connection to draw Statement 1 from Statement 2.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The two statements discuss different concepts and do not provide information about each other.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements are discussing different subjects. Statement 1 is about a player's capabilities in a game, while statement 2 is about a process of disproving a hypothesis and information communication.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss different aspects of a game or competition and do not provide information about each other.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. They discuss different topics; Statement 2 discusses disproving hypotheses and communication, while Statement 1 discusses players and legal moves. There is no logical connection between them from which one could be derived from the other.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because the two statements discuss different situations and do not have a logical connection.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are about different topics and no relationship can be inferred between them.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>The objective of player movement throughout the universe is to investigate specific planets to determine if that was the murder site.</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. Statement 2 discusses a specific goal of player movement within a certain context and does not provide any information about the legality of such moves.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The second statement talks about a specific objective of a player's movement, but it does not provide any information about whether a player can have legal moves.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The second statement talks about the objective of player movement but it does not state anything about the legality of their moves.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Part of the game, therefore, involves reaching suspicious locations quickly to investigate them.</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>No, Statement 1 doesn't logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>The game's objective is to gather clues while traveling about the universe.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>A player can have gathereds which are clues</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be derived from Statement 2. If the objective of the game is to gather clues, then it implies that a player can have gathereds which are clues.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>After gathering a certain set of clues and applying deductive reasoning, players may deduce the perpetrator and circumstance of the murder.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>A player can have gathereds which are clues</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 talks about the process of gathering clues and using reasoning, but does not specify if a player can have gathereds (presumably gathered items or info) which are clues.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be derived from Statement 2. Statement 2 implies that players can gather clues, which is essentially what Statement 1 is saying.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2. Statement 2 implies that a player has gathered clues and used them in their deduction, which implies that a player can have gathered items, in this case, clues.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>After gathering a certain set of clues and applying deductive reasoning, players may deduce the perpetrator and circumstance of the murder.</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>A clue has player</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No, Statement 1 can not be implied from Statement 2. Statement 2 shows that players use clues, but does not suggest that a clue has a player.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be determined from Statement 2. The term "players" in Statement 2 implies that a clue has a player.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be derived from Statement 2. Statement 2 implies that a player is interacting with clues which allows us to derive that a clue has a player.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. Statement 2 implies that players use clues, not that clues have players.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2. Statement 2 implies that players are involved with clues, implying that a clue has a player.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have hypothesis </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2. Statement 2 implies that a player can have a hypothesis which they can disprove.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2. Because in order for a player to disprove a hypothesis, they must first be able to have a hypothesis.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. Statement 2 specifies a condition about what happens if a player can disprove a hypothesis but does not establish that a player can have a hypothesis.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because Statement 2 assumes that Statement 1 is already true and further expounds on it.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2 because Statement 2 implies that a player can have a hypothesis.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 does support Statement 1 as it also talks about a player having a hypothesis, and further adds on to the concept by mentioning what happens when the player can disprove the hypothesis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>The game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario.</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>A player can have asks which are questions</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2, as it talks about selecting questions to ask other players, which suggests that a player can have asks in the form of questions.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be directly determined from Statement 2. While Statement 2 implies that players can ask questions, it does not directly state that these questions are referred to as "asks".</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be directly derived from Statement 2. Statement 2 doesn't mention that a player's actions or "asks" can be categorized as questions.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2. If the game's strategy includes asking questions to other players, it implies that a player can have asks which are essentially questions.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2. The phrase "selecting questions to ask other players" implies that a player can have asks which are questions.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1 as it talks about selecting questions to ask other players, which implies that a player can indeed have "asks" or questions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>As the players travel through the universe, they are permitted to ask questions about what information their fellow players possess.</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>A player can have asks which are questions</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2 as the act of asking questions in Statement 2 alludes to the fact that a player can have "asks" which are questions.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Yes, statement 1 can logically follow from statement 2. Statement 2 is demonstrating a scenario where the "asks" mentioned in statement 1 would be represented as questions about information other players possess.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>A player can have asks which are questions</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. Statement 2 discusses how questions are used in a game, but it does not indicate that a player can have "asks," or questions, as suggested by Statement 1.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2. In Statement 2, it's mentioned that the questions form a hypothesis. This implies that a player can ask questions, which is what Statement 1 is saying.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. While Statement 2 discusses questions within a game, it does not specify that a player can have asks that are indeed questions. There is no explicit connection or conclusion between the two statements.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1 by explaining the role of asking questions (or "asks") in the game - they contribute to forming a hypothesis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>A player whose token resides on one of four planets having wormhole connections to other planets may choose not to spin the spinner and take the wormhole directly to the other planet.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player travels to planets </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2. According to Statement 2, a player has the ability to move between planets, indicating that they travel to planets.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2. Statement 2 suggests that a player can move from one planet to another, which is essentially what Statement 1 states.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Yes, a player travels to planets can be determined from Statement 2. The latter refers to a player whose token resides on a planet and may travel to another through a wormhole, implying that the player moves or travels between planets.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be derived from Statement 2. Statement 2 implies that a player can travel to other planets via wormholes.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2. Statement 2 describes a scenario in which a player is already on a planet and has the option to travel to other planets. This implies that the player is capable of traveling to planets, as affirmed by Statement 1.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 does support Statement 1 as it provides a specific example of how a player may travel to other planets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss completely different topics. Statement 1 is about the existence of a wormhole in a planet while Statement 2 describes a rule in a game.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss unrelated topics and aren't logically connected.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss different topics and do not provide related information.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1. They are discussing completely different subjects.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>The game is an intergalactic murder mystery, which emulates a board game scenario in which players spin a wheel to determine a randomly selected number of moves by which they travel through space to various planets.</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 does not provide any information about the existence of wormholes, or any form of direct connectivity, between planets.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The second statement does not provide any information about whether a planet has a wormhole to other planets.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The existence of a wormhole between planets is not mentioned or suggested in Statement 2.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement mentions travel through space to various planets in a game, but it does not mention or imply that a planet has a wormhole to other planets.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>The wormholes connect certain planets.</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>No, statement 2 does not provide information to determine if a planet has a wormhole to planets. It only provides general information that wormholes connect certain planets without specifying which planets have wormholes.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be derived from Statement 2. The statement "The wormholes connect certain planets" implies that planets have wormholes to other planets, as suggested in Statement 1.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2. If wormholes connect certain planets, it's possible that a planet could have a wormhole to other planets. However, this would depend on more specific details about which planets are connected by the wormholes.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>To visit a planet, a player must enter the planet's atmosphere at one of the predefined entry points.</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 discusses a method of visiting a planet by entering its atmosphere whereas Statement 1 introduces a completely different concept (wormholes) which is not mentioned or implied in Statement 2.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss different aspects of a planet. Statement 1 discusses the existence of a wormhole to other planets, while Statement 2 refers to the way a player must enter the planet's atmosphere. There is no information in Statement 2 that would allow one to verify or deny the presence of a wormhole as mentioned in Statement 1.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The statements discuss different aspects about a planet. The first refers to a planet having a wormhole, the second to the method of visiting a planet.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are about different aspects and concepts related to planets. Statement 2 is about visiting a planet, while Statement 1 is about wormholes, which are theoretically predicted features of spacetime according to physics.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 discusses the method of entering a planet's atmosphere, but it does not mention anything about a planet having a wormhole to other planets.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>The game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario.</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The information in Statement 2 does not provide specifics about a planet having a wormhole to other planets.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are about completely different topics and have no logical connection to each other.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement does not provide any information about warmholes or a planet having them.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Each planet has between one and three predefined atmospheric entry points.</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The two statements discuss different topics - Statement 2 refers to atmospheric entry points on planets, while Statement 1 discusses the existence of wormholes between planets. There is no direct logical connection between the two.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 discusses atmospheric entry points while Statement 1 is about wormholes, which are different concepts.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The information about atmospheric entry points doesn't provide any details about a planet having a wormhole.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements talk about different aspects of planets. Statement 2 discusses atmospheric entry points, while Statement 1 talks about wormholes, which are a theoretical concept in physics.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 as they discuss different aspects of a planet - wormholes and atmospheric entry points - which are not logically connected.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 talks about atmospheric entry points of a planet, but it does not provide any information about a planet having a wormhole to other planets.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>The player can enter the planet's atmosphere in a different number of moves.</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss different topics: one is about warmholes between planets and the other is about a player's movements in a game.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The statements discuss separate aspects and do not provide information about each other.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The statements address different aspects and there is no direct logical relationship between the two. Statement 2 discusses player movement in a game, while Statement 1 discusses a theoretical concept in science fiction.</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The ability to enter a planet's atmosphere in a variable number of moves (Statement 2) does not necessarily imply the existence of wormholes to other planets (Statement 1).</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 does not provide any information regarding the existence of wormholes.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>A player may not re-visit the same planet on a single turn.</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements are discussing different aspects of planets. Statement 2 discusses a rule of a game that involves planets and does not mention anything about wormholes, which is the topic of Statement 1.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The existence of wormholes is not mentioned or inferred in Statement 2.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. They are talking about different aspects of planets and are not logically connected.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. They are about two different subjects. Statement 2 is about game rules and Statement 1 is about a scientific phenomenon. They do not have any logical connection.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are about different aspects of planets and there is no connection that allows us to infer Statement 1 from Statement 2.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>These entry points are graphically depicted on the game as a diagonal line off a square on the board leading into a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 talks about entry points to a planet in a game, but it doesn't give any information about wormholes to other planets.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 provides information about the graphical representation of entry points in a game, but it does not explicitly confirm the existence of wormholes to other planets.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because the two statements are talking about different subjects. Statement 1 is referring to a planetary feature (wormhole), while Statement 2 is describing a feature of a board game. There's no logical connection or progression from statement 2 to statement 1.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement talks about a game depiction which does not provide sufficient information about a real world's planet having a wormhole to other planets.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1. Statement 2 talks about a graphical depiction in a game, while Statement 1 is making a generic scientific claim about planets having wormholes. These two statements are not directly connected.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2. This is because, according to Statement 2, a murder hypothesis includes a planet, and, since a hypothesis includes a planet, we can infer Statement 1.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be determined from Statement 2. Statement 2 stipulates that a hypothesis in this game context consists of a planet, among other elements. Hence, it can be concluded that a hypothesis (in this game) has a planet, which is the assertion made by Statement 1.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be derived from Statement 2. This is because a murder hypothesis, which is mentioned in Statement 2, consists of a planet, among other things.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2 because according to Statement 2, a hypothesis consists of a planet.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1 as it elaborates on what the hypothesis in Statement 1 could involves, indicating that it could indeed include a planet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>The game is an intergalactic murder mystery, which emulates a board game scenario in which players spin a wheel to determine a randomly selected number of moves by which they travel through space to various planets.</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. Statement 2 does mention planets, but it does not suggest a hypothesis involving a planet.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The second statement does not provide any information about a hypothesis or a specific planet related to it.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. There is no information about a hypothesis in Statement 2.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 does not provide any information about a hypothesis having a planet.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>The wormholes connect certain planets.</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are discussing different topics, and Statement 2 gives no information about a hypothesis or whether it has a planet.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>To visit a planet, a player must enter the planet's atmosphere at one of the predefined entry points.</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are discussing different aspects of planets and there is no logical connection between them.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are not directly related to each other.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>The game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario.</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The first statement talks about a hypothesis having a planet, whereas Statement 2 discusses a game's strategy encompassing question selection, planet destinations, and deduction of a murder scenario. The two statements do not correlate in a logical manner.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Each planet has between one and three predefined atmospheric entry points.</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 provides information about planets but does not establish the existence of a planet in a specific hypothesis.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 provides information about planets but does not confirm the existence of a planet in a hypothesis.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. Statement 2 gives information about planets and their atmospheric entry points but does not mention anything about a hypothesis.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are not related in a logical manner. The existence of a planet in a hypothesis is not dependent on the number of atmospheric entry points a planet has according to Statement 2.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>The player is considered to be on the planet as soon as the planet's atmosphere has been entered.</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 does not provide information about a hypothesis having a planet.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss different topics. Statement 1 is about a hypothesis having a planet, while Statement 2 is about a player entering the planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement does not provide any information that a hypothesis has a planet.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>The planets, Linuta and Verlute, have a wormhole connecting each other, as do Earth and Evilon.</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are discussing different aspects of planets and do not provide information about each other. Statement 1 is about a hypothetical situation involving a planet while statement 2 is about actual planets and connections between them, but doesn't provide any evidence or details about a hypothesis having a planet.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are talking about different aspects of planets. Statement 2 is about a physical connection between specific planets, and Statement 1 is about a hypothetical scenario that a hypothesis has a planet. They do not have enough logical connection for 1 to follow from 2.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 provides information about certain pairs of planets connected by wormholes, but there is no information about a hypothesis containing a planet.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>The player can enter the planet's atmosphere in a different number of moves.</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>No, Statement 1 can't be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. These two statements are not logically connected.</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 does talk about a planet, but it doesn't provide any information about a hypothesis having a planet.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>A player visits a planet by making legal moves on the board until a cell adjacent to an atmosphere entry point is reached.</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss different contexts and have no direct connection.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are discussing different subjects, with the first statement talking about a hypothesis and a planet and the second discussing game rules involving a player and a planet.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>No, statement 1 cannot be concluded based on statement 2. The two statements discuss different topics and there is no logical relationship between them.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>A player may not re-visit the same planet on a single turn.</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The statements are about different subjects and aren't logically connected.</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The existence of a planet in a hypothesis is not indicated or implied in Statement 2.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>These entry points are graphically depicted on the game as a diagonal line off a square on the board leading into a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because these two statements are talking about different subjects. Statement 1 refers to a hypothesis related to a planet while Statement 2 talks about a graphical depiction in a game.</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>A player whose token resides on one of four planets having wormhole connections to other planets may choose not to spin the spinner and take the wormhole directly to the other planet.</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The second statement talks about a particular game rule that involves planets, but it does not imply that a hypothesis has a planet.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are talking about different subjects and contain no logical correlation or causal relationship. One is about a hypothesis having a planet, which is ambiguous, and the other one is about a player in a game involving planets and wormhole connections.</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
